--- a/data/pca/factorExposure/factorExposure_2018-12-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.08864627647672102</v>
+        <v>-0.05788458275514632</v>
       </c>
       <c r="C2">
-        <v>0.05097405384098782</v>
+        <v>0.03193900951849645</v>
       </c>
       <c r="D2">
-        <v>-0.06687083676565096</v>
+        <v>0.01202600036703123</v>
       </c>
       <c r="E2">
-        <v>0.002659227589013395</v>
+        <v>0.03805801628672588</v>
       </c>
       <c r="F2">
-        <v>-0.1110301444263485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1161555051673586</v>
+      </c>
+      <c r="G2">
+        <v>0.05691641757910844</v>
+      </c>
+      <c r="H2">
+        <v>-0.06569070874138258</v>
+      </c>
+      <c r="I2">
+        <v>0.1133255285621082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1907534303967507</v>
+        <v>-0.1388485843694413</v>
       </c>
       <c r="C3">
-        <v>-0.06099119414774654</v>
+        <v>0.08966279410312733</v>
       </c>
       <c r="D3">
-        <v>-0.1709419151758075</v>
+        <v>-0.0217824545422539</v>
       </c>
       <c r="E3">
-        <v>-0.06758680035813344</v>
+        <v>-0.01915711088965955</v>
       </c>
       <c r="F3">
-        <v>-0.3775699559044881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3938958817896999</v>
+      </c>
+      <c r="G3">
+        <v>0.2715100930408459</v>
+      </c>
+      <c r="H3">
+        <v>-0.09924631039814323</v>
+      </c>
+      <c r="I3">
+        <v>0.4078446143273798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08009141084995294</v>
+        <v>-0.06286830509071682</v>
       </c>
       <c r="C4">
-        <v>0.01448871962797147</v>
+        <v>0.04193047014631399</v>
       </c>
       <c r="D4">
-        <v>-0.06973638420128318</v>
+        <v>-0.02351121926584647</v>
       </c>
       <c r="E4">
-        <v>-0.04724713086976565</v>
+        <v>0.04452473510716631</v>
       </c>
       <c r="F4">
-        <v>-0.05440997496096775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07259368413935227</v>
+      </c>
+      <c r="G4">
+        <v>0.02149359186450226</v>
+      </c>
+      <c r="H4">
+        <v>-0.04667021264703406</v>
+      </c>
+      <c r="I4">
+        <v>0.06485771828843211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0004676036877109852</v>
+        <v>-0.02782331561123388</v>
       </c>
       <c r="C6">
-        <v>-0.001750872974503826</v>
+        <v>0.01250281073607307</v>
       </c>
       <c r="D6">
-        <v>0.001466029500973615</v>
+        <v>-0.00628487355864755</v>
       </c>
       <c r="E6">
-        <v>0.001802097495506625</v>
+        <v>0.00817100435918494</v>
       </c>
       <c r="F6">
-        <v>0.0008280115510220859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009394010992526011</v>
+      </c>
+      <c r="G6">
+        <v>-0.02128633328739592</v>
+      </c>
+      <c r="H6">
+        <v>0.01278283788319924</v>
+      </c>
+      <c r="I6">
+        <v>0.005676010337805191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03879077504505609</v>
+        <v>-0.03251606479536075</v>
       </c>
       <c r="C7">
-        <v>0.01918045210379455</v>
+        <v>0.006761540315077185</v>
       </c>
       <c r="D7">
-        <v>-0.04655192572922418</v>
+        <v>-0.03653609266284309</v>
       </c>
       <c r="E7">
-        <v>-0.004367379784998873</v>
+        <v>0.02890022470656103</v>
       </c>
       <c r="F7">
-        <v>-0.07929152035122604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05290387607823599</v>
+      </c>
+      <c r="G7">
+        <v>0.04889189615880722</v>
+      </c>
+      <c r="H7">
+        <v>-0.006468526017208809</v>
+      </c>
+      <c r="I7">
+        <v>0.03832507420253348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03975228438912888</v>
+        <v>-0.01841730931472152</v>
       </c>
       <c r="C8">
-        <v>-0.009424071679082935</v>
+        <v>0.04121602527201687</v>
       </c>
       <c r="D8">
-        <v>-0.06025921459642872</v>
+        <v>-0.02000903353542723</v>
       </c>
       <c r="E8">
-        <v>-0.044843370049774</v>
+        <v>0.0187075757681877</v>
       </c>
       <c r="F8">
-        <v>-0.05830995024945879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07103181283574912</v>
+      </c>
+      <c r="G8">
+        <v>0.0445066320377645</v>
+      </c>
+      <c r="H8">
+        <v>-0.03869560751897648</v>
+      </c>
+      <c r="I8">
+        <v>0.06299148874108211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06733337307774653</v>
+        <v>-0.05354872212178353</v>
       </c>
       <c r="C9">
-        <v>0.02190096372355162</v>
+        <v>0.03336288194998346</v>
       </c>
       <c r="D9">
-        <v>-0.06006268916129957</v>
+        <v>-0.02402273485979934</v>
       </c>
       <c r="E9">
-        <v>-0.05883168973227602</v>
+        <v>0.03841495248863444</v>
       </c>
       <c r="F9">
-        <v>-0.04517533623541534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0779831196869909</v>
+      </c>
+      <c r="G9">
+        <v>0.01928479116637017</v>
+      </c>
+      <c r="H9">
+        <v>-0.04691609083831083</v>
+      </c>
+      <c r="I9">
+        <v>0.03965610645518708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03527940980085341</v>
+        <v>-0.05196744103689712</v>
       </c>
       <c r="C10">
-        <v>0.07155401933513729</v>
+        <v>-0.1539658119790515</v>
       </c>
       <c r="D10">
-        <v>0.1224059885066601</v>
+        <v>0.04403230729647655</v>
       </c>
       <c r="E10">
-        <v>0.05839425492606235</v>
+        <v>-0.04224816523021321</v>
       </c>
       <c r="F10">
-        <v>-0.07372685710942445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05868565102125598</v>
+      </c>
+      <c r="G10">
+        <v>0.01961566005496567</v>
+      </c>
+      <c r="H10">
+        <v>-0.03425282777629823</v>
+      </c>
+      <c r="I10">
+        <v>0.03790744192618255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05068720175379794</v>
+        <v>-0.04326315938868974</v>
       </c>
       <c r="C11">
-        <v>-0.0003687058324916097</v>
+        <v>0.03543038429600339</v>
       </c>
       <c r="D11">
-        <v>-0.03037011381557432</v>
+        <v>-0.001674098892827977</v>
       </c>
       <c r="E11">
-        <v>-0.004723366141295105</v>
+        <v>0.0118876744051228</v>
       </c>
       <c r="F11">
-        <v>-0.04373930040391533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03619630326948967</v>
+      </c>
+      <c r="G11">
+        <v>-0.001866401619321203</v>
+      </c>
+      <c r="H11">
+        <v>-0.01439743835047405</v>
+      </c>
+      <c r="I11">
+        <v>0.03457174884540774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04194553183828521</v>
+        <v>-0.04078107353289671</v>
       </c>
       <c r="C12">
-        <v>-0.0009374621531736498</v>
+        <v>0.03124934849919531</v>
       </c>
       <c r="D12">
-        <v>-0.02992494090985673</v>
+        <v>-0.0135254933788967</v>
       </c>
       <c r="E12">
-        <v>-0.02405576083234942</v>
+        <v>0.01411773849736112</v>
       </c>
       <c r="F12">
-        <v>-0.03436746993719367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01499595047234605</v>
+      </c>
+      <c r="G12">
+        <v>0.00501691172675469</v>
+      </c>
+      <c r="H12">
+        <v>-0.006947619095528517</v>
+      </c>
+      <c r="I12">
+        <v>0.02533955073912697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04846910507059971</v>
+        <v>-0.03706435403075775</v>
       </c>
       <c r="C13">
-        <v>0.004204895706972181</v>
+        <v>0.0288710257401991</v>
       </c>
       <c r="D13">
-        <v>-0.05108053999105217</v>
+        <v>0.009237396747698436</v>
       </c>
       <c r="E13">
-        <v>0.01138592763117866</v>
+        <v>0.01168826532331866</v>
       </c>
       <c r="F13">
-        <v>-0.1055408944533841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09378752066617717</v>
+      </c>
+      <c r="G13">
+        <v>0.03337186789947869</v>
+      </c>
+      <c r="H13">
+        <v>-0.03765262985215558</v>
+      </c>
+      <c r="I13">
+        <v>0.07710680881946687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02524746408742268</v>
+        <v>-0.02121294774242476</v>
       </c>
       <c r="C14">
-        <v>0.01439043732011028</v>
+        <v>0.0156277508782122</v>
       </c>
       <c r="D14">
-        <v>-0.04364056462311564</v>
+        <v>-0.008899438909497666</v>
       </c>
       <c r="E14">
-        <v>-0.01393658301474255</v>
+        <v>0.02967752832583289</v>
       </c>
       <c r="F14">
-        <v>-0.02694042395139735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03823695475292428</v>
+      </c>
+      <c r="G14">
+        <v>0.05471940896078913</v>
+      </c>
+      <c r="H14">
+        <v>-0.02131269051291516</v>
+      </c>
+      <c r="I14">
+        <v>0.02059051410391936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04133718092617996</v>
+        <v>-0.03681236873095099</v>
       </c>
       <c r="C16">
-        <v>-0.007152865594371449</v>
+        <v>0.03409295480149487</v>
       </c>
       <c r="D16">
-        <v>-0.02853000284948112</v>
+        <v>-0.007186067614586485</v>
       </c>
       <c r="E16">
-        <v>-0.009461297458174877</v>
+        <v>0.009456299859463984</v>
       </c>
       <c r="F16">
-        <v>-0.03391443288036263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03206443702848675</v>
+      </c>
+      <c r="G16">
+        <v>0.004979770825624214</v>
+      </c>
+      <c r="H16">
+        <v>-0.007754046486793594</v>
+      </c>
+      <c r="I16">
+        <v>0.03469695077868048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0616053354078682</v>
+        <v>-0.04763465658736111</v>
       </c>
       <c r="C19">
-        <v>-0.01405688259556001</v>
+        <v>0.04379771564363156</v>
       </c>
       <c r="D19">
-        <v>-0.05403013752977336</v>
+        <v>-0.004974638361619553</v>
       </c>
       <c r="E19">
-        <v>-0.01327203585470947</v>
+        <v>0.01772945299842176</v>
       </c>
       <c r="F19">
-        <v>-0.09524723584618734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09419017845985607</v>
+      </c>
+      <c r="G19">
+        <v>0.05061930545643271</v>
+      </c>
+      <c r="H19">
+        <v>-0.02762738235093505</v>
+      </c>
+      <c r="I19">
+        <v>0.08312243579661695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.02128258910717399</v>
+        <v>-0.0138158538577775</v>
       </c>
       <c r="C20">
-        <v>0.01022308956715524</v>
+        <v>0.01930920372895754</v>
       </c>
       <c r="D20">
-        <v>-0.04911104199264737</v>
+        <v>-0.008780914279598083</v>
       </c>
       <c r="E20">
-        <v>-0.03137263085795119</v>
+        <v>0.02107865769518926</v>
       </c>
       <c r="F20">
-        <v>-0.06675925228362151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06135114566157565</v>
+      </c>
+      <c r="G20">
+        <v>0.06203665614516932</v>
+      </c>
+      <c r="H20">
+        <v>-0.01430717216962509</v>
+      </c>
+      <c r="I20">
+        <v>0.07347425287759571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.02360992296130222</v>
+        <v>-0.02798512591989495</v>
       </c>
       <c r="C21">
-        <v>-0.0155004257943531</v>
+        <v>0.02345530327285139</v>
       </c>
       <c r="D21">
-        <v>-0.0451625377159485</v>
+        <v>-0.01640199213243602</v>
       </c>
       <c r="E21">
-        <v>-0.008691560494396981</v>
+        <v>0.006436853154879304</v>
       </c>
       <c r="F21">
-        <v>-0.08325825235345188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07076336194945602</v>
+      </c>
+      <c r="G21">
+        <v>0.009466654002356795</v>
+      </c>
+      <c r="H21">
+        <v>-0.05158738496776012</v>
+      </c>
+      <c r="I21">
+        <v>0.008856736017486726</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04031556139833696</v>
+        <v>-0.0355038629886586</v>
       </c>
       <c r="C24">
-        <v>-0.00305069196463529</v>
+        <v>0.02994723999701724</v>
       </c>
       <c r="D24">
-        <v>-0.02946445396446335</v>
+        <v>-0.006794633409049384</v>
       </c>
       <c r="E24">
-        <v>-0.01317126335065365</v>
+        <v>0.0113173130525335</v>
       </c>
       <c r="F24">
-        <v>-0.04352605533358814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03492429918869787</v>
+      </c>
+      <c r="G24">
+        <v>0.000328844095894069</v>
+      </c>
+      <c r="H24">
+        <v>-0.00884986083393469</v>
+      </c>
+      <c r="I24">
+        <v>0.03809261608209993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04206214545307073</v>
+        <v>-0.04286143676568609</v>
       </c>
       <c r="C25">
-        <v>0.0008843573195296618</v>
+        <v>0.02805700362546763</v>
       </c>
       <c r="D25">
-        <v>-0.02767807279349702</v>
+        <v>-0.005451099003327055</v>
       </c>
       <c r="E25">
-        <v>-0.01371990083691208</v>
+        <v>0.01244476559292654</v>
       </c>
       <c r="F25">
-        <v>-0.04310820634984917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04340843871180424</v>
+      </c>
+      <c r="G25">
+        <v>-0.008130591133632801</v>
+      </c>
+      <c r="H25">
+        <v>-0.01359021758083892</v>
+      </c>
+      <c r="I25">
+        <v>0.03129836738243407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0208185535766061</v>
+        <v>-0.01276373831068647</v>
       </c>
       <c r="C26">
-        <v>-0.008563132163347633</v>
+        <v>0.02687259628359218</v>
       </c>
       <c r="D26">
-        <v>-0.05235804639451125</v>
+        <v>-0.0009347442121619631</v>
       </c>
       <c r="E26">
-        <v>0.006398360690352219</v>
+        <v>0.003775043381920851</v>
       </c>
       <c r="F26">
-        <v>-0.03404715607613176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04541589208010669</v>
+      </c>
+      <c r="G26">
+        <v>0.03095767368830368</v>
+      </c>
+      <c r="H26">
+        <v>-0.01348395286278979</v>
+      </c>
+      <c r="I26">
+        <v>0.03636163213205656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1067609632957939</v>
+        <v>-0.06159990764339732</v>
       </c>
       <c r="C27">
-        <v>0.02696952693875817</v>
+        <v>0.02001582418683088</v>
       </c>
       <c r="D27">
-        <v>-0.04587959652132172</v>
+        <v>-0.006689366202746387</v>
       </c>
       <c r="E27">
-        <v>-0.03504930170594935</v>
+        <v>0.02876513474434139</v>
       </c>
       <c r="F27">
-        <v>-0.05253790535815461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04654431270710409</v>
+      </c>
+      <c r="G27">
+        <v>0.03323328843615019</v>
+      </c>
+      <c r="H27">
+        <v>-0.02558122327302179</v>
+      </c>
+      <c r="I27">
+        <v>0.02197866112468041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04601837726172778</v>
+        <v>-0.0744683364330009</v>
       </c>
       <c r="C28">
-        <v>0.09499574105183303</v>
+        <v>-0.2368025508742614</v>
       </c>
       <c r="D28">
-        <v>0.2096261367921735</v>
+        <v>0.05885190030226419</v>
       </c>
       <c r="E28">
-        <v>0.0802536207003508</v>
+        <v>-0.06504652780386817</v>
       </c>
       <c r="F28">
-        <v>-0.04954635589311422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0405114709704132</v>
+      </c>
+      <c r="G28">
+        <v>0.04158921220304693</v>
+      </c>
+      <c r="H28">
+        <v>-0.03215587426091997</v>
+      </c>
+      <c r="I28">
+        <v>0.05925292513731434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02779411951639144</v>
+        <v>-0.02228711152399954</v>
       </c>
       <c r="C29">
-        <v>0.01343896273159345</v>
+        <v>0.01643106700878142</v>
       </c>
       <c r="D29">
-        <v>-0.04378277749884715</v>
+        <v>-0.01184673274133895</v>
       </c>
       <c r="E29">
-        <v>-0.02610061976031926</v>
+        <v>0.03234236210904634</v>
       </c>
       <c r="F29">
-        <v>-0.01842461152771546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0347557776809953</v>
+      </c>
+      <c r="G29">
+        <v>0.05745198451278673</v>
+      </c>
+      <c r="H29">
+        <v>-0.02744448980041713</v>
+      </c>
+      <c r="I29">
+        <v>0.003820007152010301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1021243147717922</v>
+        <v>-0.0844466455241009</v>
       </c>
       <c r="C30">
-        <v>0.03153692555295017</v>
+        <v>0.06114051809195818</v>
       </c>
       <c r="D30">
-        <v>-0.06940837989088075</v>
+        <v>0.02903603798149562</v>
       </c>
       <c r="E30">
-        <v>-0.01443115109454844</v>
+        <v>0.03926456295062501</v>
       </c>
       <c r="F30">
-        <v>-0.09939784652532092</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.09850405130301697</v>
+      </c>
+      <c r="G30">
+        <v>0.01525356396427691</v>
+      </c>
+      <c r="H30">
+        <v>0.001862568059471979</v>
+      </c>
+      <c r="I30">
+        <v>0.01869410082040485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06231884620208306</v>
+        <v>-0.05753475341642841</v>
       </c>
       <c r="C31">
-        <v>0.01416115047330097</v>
+        <v>0.01685095668523802</v>
       </c>
       <c r="D31">
-        <v>-0.03118788825105369</v>
+        <v>0.006592279006928864</v>
       </c>
       <c r="E31">
-        <v>0.03325098946944705</v>
+        <v>0.02119265833202566</v>
       </c>
       <c r="F31">
-        <v>0.01674148027276342</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002421798041674185</v>
+      </c>
+      <c r="G31">
+        <v>0.04142701786178406</v>
+      </c>
+      <c r="H31">
+        <v>-0.04668632481846705</v>
+      </c>
+      <c r="I31">
+        <v>0.01720842312663336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.05628980401800839</v>
+        <v>-0.03231064015614526</v>
       </c>
       <c r="C32">
-        <v>0.0007636819448558544</v>
+        <v>0.04040970536029515</v>
       </c>
       <c r="D32">
-        <v>-0.06648381806549956</v>
+        <v>-0.02593489020819621</v>
       </c>
       <c r="E32">
-        <v>-0.03644233716026274</v>
+        <v>0.04170177927812375</v>
       </c>
       <c r="F32">
-        <v>-0.08015636016757537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07390584594777817</v>
+      </c>
+      <c r="G32">
+        <v>0.03295785892759209</v>
+      </c>
+      <c r="H32">
+        <v>-0.02970519556840488</v>
+      </c>
+      <c r="I32">
+        <v>0.06069231985441444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.05286627328699822</v>
+        <v>-0.04519417101748949</v>
       </c>
       <c r="C33">
-        <v>-0.01054853558489311</v>
+        <v>0.05540850404044869</v>
       </c>
       <c r="D33">
-        <v>-0.07821030496791097</v>
+        <v>0.007710113013745362</v>
       </c>
       <c r="E33">
-        <v>-0.01011602450493746</v>
+        <v>0.01100180349883449</v>
       </c>
       <c r="F33">
-        <v>-0.05463975797799162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.06920144280942311</v>
+      </c>
+      <c r="G33">
+        <v>0.0399336621846585</v>
+      </c>
+      <c r="H33">
+        <v>-0.04068229746596586</v>
+      </c>
+      <c r="I33">
+        <v>0.03771995500357136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04191672745626878</v>
+        <v>-0.03842326245205314</v>
       </c>
       <c r="C34">
-        <v>0.004078862819102818</v>
+        <v>0.03297677488773815</v>
       </c>
       <c r="D34">
-        <v>-0.03526538860767515</v>
+        <v>-0.01237331203729942</v>
       </c>
       <c r="E34">
-        <v>-0.0150480318132523</v>
+        <v>0.02112511303029557</v>
       </c>
       <c r="F34">
-        <v>-0.03579583231798497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03608299296381406</v>
+      </c>
+      <c r="G34">
+        <v>-0.0003935473554828562</v>
+      </c>
+      <c r="H34">
+        <v>-0.01131585792055992</v>
+      </c>
+      <c r="I34">
+        <v>0.03704312992020671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01439941504790158</v>
+        <v>-0.01596700556656383</v>
       </c>
       <c r="C36">
-        <v>0.0110544928844906</v>
+        <v>0.0009225525665001901</v>
       </c>
       <c r="D36">
-        <v>-0.0134008229088947</v>
+        <v>-0.003287780663826873</v>
       </c>
       <c r="E36">
-        <v>-0.008232213302846632</v>
+        <v>0.01014339883763026</v>
       </c>
       <c r="F36">
-        <v>-0.02145567378743086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0278317114826669</v>
+      </c>
+      <c r="G36">
+        <v>0.0302101629621234</v>
+      </c>
+      <c r="H36">
+        <v>-0.02771452418318525</v>
+      </c>
+      <c r="I36">
+        <v>-0.008588483355524246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0307290029079477</v>
+        <v>-0.02883290921217974</v>
       </c>
       <c r="C38">
-        <v>0.004594911390373915</v>
+        <v>0.007765559539476278</v>
       </c>
       <c r="D38">
-        <v>-0.004693332423070964</v>
+        <v>-0.005404253495984715</v>
       </c>
       <c r="E38">
-        <v>-0.01288820285558241</v>
+        <v>0.005055283548803868</v>
       </c>
       <c r="F38">
-        <v>-0.01634872349443516</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04654672458616976</v>
+      </c>
+      <c r="G38">
+        <v>0.01348426479326244</v>
+      </c>
+      <c r="H38">
+        <v>-0.03342726270079448</v>
+      </c>
+      <c r="I38">
+        <v>0.001105184197960724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0635502558184034</v>
+        <v>-0.04879902040473021</v>
       </c>
       <c r="C39">
-        <v>0.005295244895003308</v>
+        <v>0.05256588402066301</v>
       </c>
       <c r="D39">
-        <v>-0.04754816488306375</v>
+        <v>-0.005572465053631356</v>
       </c>
       <c r="E39">
-        <v>-0.0009639822618671729</v>
+        <v>0.02600180598792672</v>
       </c>
       <c r="F39">
-        <v>-0.03246272220112978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05290453097341616</v>
+      </c>
+      <c r="G39">
+        <v>-0.007151251314425997</v>
+      </c>
+      <c r="H39">
+        <v>-0.02404692810552539</v>
+      </c>
+      <c r="I39">
+        <v>0.01701348061552653</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.06087639951932022</v>
+        <v>-0.04897014832420771</v>
       </c>
       <c r="C40">
-        <v>0.02171234606301953</v>
+        <v>0.04663015654694439</v>
       </c>
       <c r="D40">
-        <v>-0.07500580358351477</v>
+        <v>0.01267491636054134</v>
       </c>
       <c r="E40">
-        <v>0.0155566043511222</v>
+        <v>0.03019607233072393</v>
       </c>
       <c r="F40">
-        <v>-0.08285095915692639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08167192630379252</v>
+      </c>
+      <c r="G40">
+        <v>0.0333922854376955</v>
+      </c>
+      <c r="H40">
+        <v>-0.03525695767088491</v>
+      </c>
+      <c r="I40">
+        <v>0.1109170086808449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005697407795567943</v>
+        <v>-0.0007751322218486386</v>
       </c>
       <c r="C41">
-        <v>0.0002115230735440962</v>
+        <v>0.004148844128862774</v>
       </c>
       <c r="D41">
-        <v>-0.030259792716643</v>
+        <v>0.0002608498247911513</v>
       </c>
       <c r="E41">
-        <v>-0.008469487964384797</v>
+        <v>0.008774878180997885</v>
       </c>
       <c r="F41">
-        <v>0.01518851859888662</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.008270203820524973</v>
+      </c>
+      <c r="G41">
+        <v>0.04068774967293066</v>
+      </c>
+      <c r="H41">
+        <v>-0.04078497123915494</v>
+      </c>
+      <c r="I41">
+        <v>0.002937011686855668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2512630617219902</v>
+        <v>-0.2038867286531543</v>
       </c>
       <c r="C42">
-        <v>-0.9004431184394573</v>
+        <v>0.3325058057650958</v>
       </c>
       <c r="D42">
-        <v>0.2077243622713803</v>
+        <v>-0.05337200116191516</v>
       </c>
       <c r="E42">
-        <v>0.2117962973832136</v>
+        <v>-0.8870863680002501</v>
       </c>
       <c r="F42">
-        <v>0.02956971309210451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1643046837431034</v>
+      </c>
+      <c r="G42">
+        <v>0.005603985383290939</v>
+      </c>
+      <c r="H42">
+        <v>0.009815449403678575</v>
+      </c>
+      <c r="I42">
+        <v>0.0366083798426564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005528790471136569</v>
+        <v>-0.003450934462365002</v>
       </c>
       <c r="C43">
-        <v>-0.0008855894706808551</v>
+        <v>0.005851465777924996</v>
       </c>
       <c r="D43">
-        <v>-0.03163641239992687</v>
+        <v>0.002404212706592497</v>
       </c>
       <c r="E43">
-        <v>-0.004886769541397643</v>
+        <v>0.007011086877634851</v>
       </c>
       <c r="F43">
-        <v>-0.01705179994973722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.019487038187485</v>
+      </c>
+      <c r="G43">
+        <v>0.03347858475202235</v>
+      </c>
+      <c r="H43">
+        <v>-0.02198596560574164</v>
+      </c>
+      <c r="I43">
+        <v>0.01338271390598154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03270934692461012</v>
+        <v>-0.02233389023973114</v>
       </c>
       <c r="C44">
-        <v>-0.002092212946514358</v>
+        <v>0.03699360003012044</v>
       </c>
       <c r="D44">
-        <v>-0.07665133380773162</v>
+        <v>-0.009205580254610664</v>
       </c>
       <c r="E44">
-        <v>-0.02145559079868293</v>
+        <v>0.01654104074992814</v>
       </c>
       <c r="F44">
-        <v>-0.1056843695859926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1174670566561357</v>
+      </c>
+      <c r="G44">
+        <v>0.08910966151390821</v>
+      </c>
+      <c r="H44">
+        <v>-0.06193139943814951</v>
+      </c>
+      <c r="I44">
+        <v>0.060520296242482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03056063707023607</v>
+        <v>-0.02263934039519636</v>
       </c>
       <c r="C46">
-        <v>0.005746740907492847</v>
+        <v>0.03129554672603003</v>
       </c>
       <c r="D46">
-        <v>-0.05084860431833883</v>
+        <v>-0.001628446115894933</v>
       </c>
       <c r="E46">
-        <v>-0.009193797264803466</v>
+        <v>0.03293742203138506</v>
       </c>
       <c r="F46">
-        <v>-0.009681145236953471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04576041773626596</v>
+      </c>
+      <c r="G46">
+        <v>0.0580216621452823</v>
+      </c>
+      <c r="H46">
+        <v>-0.02775815147630054</v>
+      </c>
+      <c r="I46">
+        <v>0.005899694770496155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08784364478862057</v>
+        <v>-0.08313214527387629</v>
       </c>
       <c r="C47">
-        <v>0.01777241587490984</v>
+        <v>0.02347324674716224</v>
       </c>
       <c r="D47">
-        <v>-0.03768310750281703</v>
+        <v>-0.00125632355491856</v>
       </c>
       <c r="E47">
-        <v>-0.008807521656640289</v>
+        <v>0.03032444425068915</v>
       </c>
       <c r="F47">
-        <v>0.02471899441360326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01931047658105276</v>
+      </c>
+      <c r="G47">
+        <v>0.06670783625537628</v>
+      </c>
+      <c r="H47">
+        <v>-0.03775291304440401</v>
+      </c>
+      <c r="I47">
+        <v>0.02864452537617096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01541145847552921</v>
+        <v>-0.02017065606094222</v>
       </c>
       <c r="C48">
-        <v>0.005099682393617279</v>
+        <v>0.01312984593994469</v>
       </c>
       <c r="D48">
-        <v>-0.03624230816440509</v>
+        <v>-0.003076277232368251</v>
       </c>
       <c r="E48">
-        <v>-0.009422565992919496</v>
+        <v>0.01504310483544034</v>
       </c>
       <c r="F48">
-        <v>-0.02362380956288111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0293912565935159</v>
+      </c>
+      <c r="G48">
+        <v>0.02249516707641287</v>
+      </c>
+      <c r="H48">
+        <v>-0.02016539937353813</v>
+      </c>
+      <c r="I48">
+        <v>0.01083302471255255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08817961013116769</v>
+        <v>-0.08349135001757581</v>
       </c>
       <c r="C50">
-        <v>0.005233440827942868</v>
+        <v>0.03368573623605511</v>
       </c>
       <c r="D50">
-        <v>-0.03664887499950363</v>
+        <v>-0.01574165189222916</v>
       </c>
       <c r="E50">
-        <v>0.01128592980117002</v>
+        <v>0.02287991003907739</v>
       </c>
       <c r="F50">
-        <v>0.01631716181014495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.007169121848632485</v>
+      </c>
+      <c r="G50">
+        <v>0.04556889788727565</v>
+      </c>
+      <c r="H50">
+        <v>0.003616779896865661</v>
+      </c>
+      <c r="I50">
+        <v>-0.008025847436371419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05455716179422979</v>
+        <v>-0.03923669890838901</v>
       </c>
       <c r="C51">
-        <v>0.01847871406665512</v>
+        <v>-2.255367204313811e-05</v>
       </c>
       <c r="D51">
-        <v>-0.02820510227044096</v>
+        <v>0.01254094055915265</v>
       </c>
       <c r="E51">
-        <v>0.03011695838086827</v>
+        <v>0.01142222563233123</v>
       </c>
       <c r="F51">
-        <v>-0.05269326878929886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08278015682481932</v>
+      </c>
+      <c r="G51">
+        <v>0.06251142230134503</v>
+      </c>
+      <c r="H51">
+        <v>-0.05958122255306662</v>
+      </c>
+      <c r="I51">
+        <v>0.03986700784125661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1255794588204664</v>
+        <v>-0.1156281305766635</v>
       </c>
       <c r="C53">
-        <v>0.02840972694902355</v>
+        <v>0.04154924983635623</v>
       </c>
       <c r="D53">
-        <v>-0.05327784383858617</v>
+        <v>-0.003729319325789281</v>
       </c>
       <c r="E53">
-        <v>0.00762789064862629</v>
+        <v>0.05641110922474035</v>
       </c>
       <c r="F53">
-        <v>0.07971321713254735</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06081379681974402</v>
+      </c>
+      <c r="G53">
+        <v>0.03031289262610932</v>
+      </c>
+      <c r="H53">
+        <v>-0.02498744309933413</v>
+      </c>
+      <c r="I53">
+        <v>0.02834523885124943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02412124308175261</v>
+        <v>-0.02568404116119395</v>
       </c>
       <c r="C54">
-        <v>0.01956719073001243</v>
+        <v>0.002644847438207254</v>
       </c>
       <c r="D54">
-        <v>-0.03273619994172375</v>
+        <v>-0.004491164874679069</v>
       </c>
       <c r="E54">
-        <v>-0.01541678993370702</v>
+        <v>0.0307653456714396</v>
       </c>
       <c r="F54">
-        <v>-0.02972920241485473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03528410583559294</v>
+      </c>
+      <c r="G54">
+        <v>0.05436203832620037</v>
+      </c>
+      <c r="H54">
+        <v>-0.03699533451469057</v>
+      </c>
+      <c r="I54">
+        <v>0.001737560646541414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1051177454960854</v>
+        <v>-0.09369278518198391</v>
       </c>
       <c r="C55">
-        <v>0.02418203779562485</v>
+        <v>0.03366045075695356</v>
       </c>
       <c r="D55">
-        <v>-0.01133028808446112</v>
+        <v>-0.0192919268869777</v>
       </c>
       <c r="E55">
-        <v>-0.03207852708791627</v>
+        <v>0.04071953972919166</v>
       </c>
       <c r="F55">
-        <v>0.03414742854857331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04664240735005566</v>
+      </c>
+      <c r="G55">
+        <v>0.0465969067120209</v>
+      </c>
+      <c r="H55">
+        <v>0.0072612886118932</v>
+      </c>
+      <c r="I55">
+        <v>0.003537428628786471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1631398112387032</v>
+        <v>-0.1576458501056734</v>
       </c>
       <c r="C56">
-        <v>0.07831453278736474</v>
+        <v>0.03415512861159928</v>
       </c>
       <c r="D56">
-        <v>-0.03546131252219772</v>
+        <v>-0.004621262426270291</v>
       </c>
       <c r="E56">
-        <v>-0.01223193611521784</v>
+        <v>0.09128705709748197</v>
       </c>
       <c r="F56">
-        <v>0.1085863686378093</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1036958414064824</v>
+      </c>
+      <c r="G56">
+        <v>-0.00678723219994776</v>
+      </c>
+      <c r="H56">
+        <v>0.0249577222720214</v>
+      </c>
+      <c r="I56">
+        <v>0.02680735044155278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06448902486111358</v>
+        <v>-0.05540634212534313</v>
       </c>
       <c r="C57">
-        <v>0.01050264393175991</v>
+        <v>0.03109923125304679</v>
       </c>
       <c r="D57">
-        <v>-0.04938866343935552</v>
+        <v>0.01189605054398178</v>
       </c>
       <c r="E57">
-        <v>0.01415615476257186</v>
+        <v>0.007043014519597041</v>
       </c>
       <c r="F57">
-        <v>-0.05387475743651436</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.059768047980797</v>
+      </c>
+      <c r="G57">
+        <v>0.01707089911338178</v>
+      </c>
+      <c r="H57">
+        <v>-0.02009765475325762</v>
+      </c>
+      <c r="I57">
+        <v>0.03145031345580156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1949871358606463</v>
+        <v>-0.1963709686144046</v>
       </c>
       <c r="C58">
-        <v>-0.003482112655262943</v>
+        <v>0.1456813256576222</v>
       </c>
       <c r="D58">
-        <v>-0.1240285903864726</v>
+        <v>0.06407825884464474</v>
       </c>
       <c r="E58">
-        <v>-2.386307705068767e-05</v>
+        <v>-0.01662469714947529</v>
       </c>
       <c r="F58">
-        <v>-0.2395659802268251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3711906092478874</v>
+      </c>
+      <c r="G58">
+        <v>0.3546936283260594</v>
+      </c>
+      <c r="H58">
+        <v>0.2681802123439377</v>
+      </c>
+      <c r="I58">
+        <v>-0.7193386363247741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.03724028777013386</v>
+        <v>-0.07211839974461126</v>
       </c>
       <c r="C59">
-        <v>0.1032574253513722</v>
+        <v>-0.1996952952724285</v>
       </c>
       <c r="D59">
-        <v>0.1530024927757564</v>
+        <v>0.06774320056197933</v>
       </c>
       <c r="E59">
-        <v>0.05948796586215537</v>
+        <v>-0.03164108899931434</v>
       </c>
       <c r="F59">
-        <v>-0.04359388714616151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05455059726833541</v>
+      </c>
+      <c r="G59">
+        <v>-0.003432121424731013</v>
+      </c>
+      <c r="H59">
+        <v>-0.0121225854960796</v>
+      </c>
+      <c r="I59">
+        <v>0.002175795310377521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1823428357006035</v>
+        <v>-0.1993884600995971</v>
       </c>
       <c r="C60">
-        <v>0.05788389577668406</v>
+        <v>-0.01915742310322374</v>
       </c>
       <c r="D60">
-        <v>0.009496895681928503</v>
+        <v>0.06327653407864889</v>
       </c>
       <c r="E60">
-        <v>0.08039056010002629</v>
+        <v>0.01451139081941166</v>
       </c>
       <c r="F60">
-        <v>-0.1440838955884703</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1811071367687508</v>
+      </c>
+      <c r="G60">
+        <v>-0.3562878516955623</v>
+      </c>
+      <c r="H60">
+        <v>0.02853012053405995</v>
+      </c>
+      <c r="I60">
+        <v>0.03023064245512924</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03372199630599072</v>
+        <v>-0.0364034453247752</v>
       </c>
       <c r="C61">
-        <v>0.001995112899788596</v>
+        <v>0.03523345421915275</v>
       </c>
       <c r="D61">
-        <v>-0.02809916561102166</v>
+        <v>-0.008649227271010024</v>
       </c>
       <c r="E61">
-        <v>-0.01520852097668963</v>
+        <v>0.01820298229606892</v>
       </c>
       <c r="F61">
-        <v>-0.03613061620597516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03768341872018002</v>
+      </c>
+      <c r="G61">
+        <v>-0.01722322514465815</v>
+      </c>
+      <c r="H61">
+        <v>-0.01292945604723316</v>
+      </c>
+      <c r="I61">
+        <v>0.005681078779892973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03087586368868217</v>
+        <v>-0.02613377122992686</v>
       </c>
       <c r="C63">
-        <v>0.0116958752618452</v>
+        <v>0.02294991237339036</v>
       </c>
       <c r="D63">
-        <v>-0.03941759605641872</v>
+        <v>-0.004095120251336094</v>
       </c>
       <c r="E63">
-        <v>-0.008620626907948344</v>
+        <v>0.02000059014169559</v>
       </c>
       <c r="F63">
-        <v>-0.03987222151213656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02889772419013946</v>
+      </c>
+      <c r="G63">
+        <v>0.04822445903401607</v>
+      </c>
+      <c r="H63">
+        <v>-0.01085009665627403</v>
+      </c>
+      <c r="I63">
+        <v>0.02590952125117289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05188761413587995</v>
+        <v>-0.05282362277539029</v>
       </c>
       <c r="C64">
-        <v>0.004789619674382249</v>
+        <v>0.03560751994034795</v>
       </c>
       <c r="D64">
-        <v>-0.05206968094150006</v>
+        <v>-0.01863421958738428</v>
       </c>
       <c r="E64">
-        <v>-0.04926246562688546</v>
+        <v>0.02588846352151298</v>
       </c>
       <c r="F64">
-        <v>-0.02717124080732604</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03841999783100819</v>
+      </c>
+      <c r="G64">
+        <v>0.02334867162215487</v>
+      </c>
+      <c r="H64">
+        <v>-0.06452264081420921</v>
+      </c>
+      <c r="I64">
+        <v>0.04528349556136276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0007394544011004684</v>
+        <v>-0.03107315613069525</v>
       </c>
       <c r="C65">
-        <v>-0.002442515719719423</v>
+        <v>0.01293392624899927</v>
       </c>
       <c r="D65">
-        <v>0.001797807762338301</v>
+        <v>-0.006521960735945259</v>
       </c>
       <c r="E65">
-        <v>0.002138585038400459</v>
+        <v>0.008270428449739752</v>
       </c>
       <c r="F65">
-        <v>0.0008051168756287169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.006221507024763727</v>
+      </c>
+      <c r="G65">
+        <v>-0.02591027499447686</v>
+      </c>
+      <c r="H65">
+        <v>0.01060064099924843</v>
+      </c>
+      <c r="I65">
+        <v>0.005263438964801129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06319880397349678</v>
+        <v>-0.05863765847899182</v>
       </c>
       <c r="C66">
-        <v>0.01918566151793431</v>
+        <v>0.06102821567331848</v>
       </c>
       <c r="D66">
-        <v>-0.07178794324610489</v>
+        <v>0.0005722715913583627</v>
       </c>
       <c r="E66">
-        <v>-0.02324496645112213</v>
+        <v>0.05180008919795336</v>
       </c>
       <c r="F66">
-        <v>-0.07118035396116837</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06609983153633003</v>
+      </c>
+      <c r="G66">
+        <v>-0.01493648103832681</v>
+      </c>
+      <c r="H66">
+        <v>-0.01000668336924161</v>
+      </c>
+      <c r="I66">
+        <v>0.05601852772609347</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.04808187143656208</v>
+        <v>-0.04670869150211275</v>
       </c>
       <c r="C67">
-        <v>0.01182248191051959</v>
+        <v>-0.002545463559992891</v>
       </c>
       <c r="D67">
-        <v>0.01029665629086323</v>
+        <v>0.001667607912007364</v>
       </c>
       <c r="E67">
-        <v>-0.0004555195572301331</v>
+        <v>0.006284111799559927</v>
       </c>
       <c r="F67">
-        <v>-0.02304953705989687</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03765809149176929</v>
+      </c>
+      <c r="G67">
+        <v>-0.01103029143131734</v>
+      </c>
+      <c r="H67">
+        <v>-0.0452554433524191</v>
+      </c>
+      <c r="I67">
+        <v>-0.00267805260887197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06586451391431432</v>
+        <v>-0.08093571012887518</v>
       </c>
       <c r="C68">
-        <v>0.1006395653837165</v>
+        <v>-0.2215418876503777</v>
       </c>
       <c r="D68">
-        <v>0.2012027930568729</v>
+        <v>0.06632182301320637</v>
       </c>
       <c r="E68">
-        <v>0.07059841625912501</v>
+        <v>-0.05190020965649737</v>
       </c>
       <c r="F68">
-        <v>-0.03432431589621367</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02069989263724339</v>
+      </c>
+      <c r="G68">
+        <v>0.04488649713819527</v>
+      </c>
+      <c r="H68">
+        <v>0.01351568244384603</v>
+      </c>
+      <c r="I68">
+        <v>-0.003131856698729894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07499979478455528</v>
+        <v>-0.06836669671405034</v>
       </c>
       <c r="C69">
-        <v>0.01985052645400891</v>
+        <v>0.02081375147795326</v>
       </c>
       <c r="D69">
-        <v>-0.02124726789263275</v>
+        <v>0.002324773565274552</v>
       </c>
       <c r="E69">
-        <v>0.003726256508700895</v>
+        <v>0.0314819622992341</v>
       </c>
       <c r="F69">
-        <v>0.01047741956156196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005405633245906192</v>
+      </c>
+      <c r="G69">
+        <v>0.04248335408040479</v>
+      </c>
+      <c r="H69">
+        <v>-0.0295962789901973</v>
+      </c>
+      <c r="I69">
+        <v>0.01928763169729116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.06422961899967931</v>
+        <v>-0.07921753773409074</v>
       </c>
       <c r="C71">
-        <v>0.1247826073798523</v>
+        <v>-0.2444110844814038</v>
       </c>
       <c r="D71">
-        <v>0.2487306764302464</v>
+        <v>0.0778793847163433</v>
       </c>
       <c r="E71">
-        <v>0.1275935158015606</v>
+        <v>-0.07001344081534755</v>
       </c>
       <c r="F71">
-        <v>-0.07978603871953567</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04795083478725106</v>
+      </c>
+      <c r="G71">
+        <v>0.02891557205421623</v>
+      </c>
+      <c r="H71">
+        <v>-0.01431331971496868</v>
+      </c>
+      <c r="I71">
+        <v>0.01583921587480214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1315507400480654</v>
+        <v>-0.1351880027539284</v>
       </c>
       <c r="C72">
-        <v>0.07065676044672915</v>
+        <v>0.04822752696434276</v>
       </c>
       <c r="D72">
-        <v>-0.04809397658606115</v>
+        <v>0.00697989530855824</v>
       </c>
       <c r="E72">
-        <v>-0.0122640939439546</v>
+        <v>0.08780637537324808</v>
       </c>
       <c r="F72">
-        <v>-0.07736678741692209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09402129612118036</v>
+      </c>
+      <c r="G72">
+        <v>-0.09845810604696856</v>
+      </c>
+      <c r="H72">
+        <v>0.01190242584955367</v>
+      </c>
+      <c r="I72">
+        <v>-0.1473304234173083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2879560880818641</v>
+        <v>-0.2880083563937088</v>
       </c>
       <c r="C73">
-        <v>0.07283806952350405</v>
+        <v>-0.006409705047635681</v>
       </c>
       <c r="D73">
-        <v>0.04531422374508572</v>
+        <v>0.09948843850137244</v>
       </c>
       <c r="E73">
-        <v>0.1034039328738334</v>
+        <v>-0.02673763956314322</v>
       </c>
       <c r="F73">
-        <v>-0.2538845622890313</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2621903971169376</v>
+      </c>
+      <c r="G73">
+        <v>-0.5319145474010204</v>
+      </c>
+      <c r="H73">
+        <v>0.09149049218496902</v>
+      </c>
+      <c r="I73">
+        <v>-0.007441085139193954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1455657015154752</v>
+        <v>-0.1409062793315195</v>
       </c>
       <c r="C74">
-        <v>0.0277385675725344</v>
+        <v>0.0504339507537498</v>
       </c>
       <c r="D74">
-        <v>-0.0371661942806747</v>
+        <v>-0.002079102556454407</v>
       </c>
       <c r="E74">
-        <v>0.000278262253519112</v>
+        <v>0.05622897430589721</v>
       </c>
       <c r="F74">
-        <v>0.0600028353818735</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08371765133275023</v>
+      </c>
+      <c r="G74">
+        <v>-0.009275719937722169</v>
+      </c>
+      <c r="H74">
+        <v>0.02005511415232907</v>
+      </c>
+      <c r="I74">
+        <v>0.06820373935246161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2270332860114744</v>
+        <v>-0.244973967645704</v>
       </c>
       <c r="C75">
-        <v>0.07874633076246854</v>
+        <v>0.05503151265832824</v>
       </c>
       <c r="D75">
-        <v>-0.06731630817723741</v>
+        <v>0.01909138016849926</v>
       </c>
       <c r="E75">
-        <v>0.01982085246938742</v>
+        <v>0.122560255647293</v>
       </c>
       <c r="F75">
-        <v>0.1362748555738316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1500426558742899</v>
+      </c>
+      <c r="G75">
+        <v>0.01828000607518293</v>
+      </c>
+      <c r="H75">
+        <v>-0.003594651825170222</v>
+      </c>
+      <c r="I75">
+        <v>0.02273611724615865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2607151666995799</v>
+        <v>-0.2576481584214848</v>
       </c>
       <c r="C76">
-        <v>0.1022772421790874</v>
+        <v>0.03596203201356436</v>
       </c>
       <c r="D76">
-        <v>-0.03099231002328147</v>
+        <v>-0.01710033434162983</v>
       </c>
       <c r="E76">
-        <v>-0.03918209458523617</v>
+        <v>0.1451632685603836</v>
       </c>
       <c r="F76">
-        <v>0.136206392152387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.2006430850909662</v>
+      </c>
+      <c r="G76">
+        <v>0.03099081628764399</v>
+      </c>
+      <c r="H76">
+        <v>0.07597877297370531</v>
+      </c>
+      <c r="I76">
+        <v>0.02918099451990733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1388350838261896</v>
+        <v>-0.1051655776606836</v>
       </c>
       <c r="C77">
-        <v>-0.05653885114875976</v>
+        <v>0.08454521214295022</v>
       </c>
       <c r="D77">
-        <v>-0.08014686422072802</v>
+        <v>-0.01276859132140729</v>
       </c>
       <c r="E77">
-        <v>-0.02378880310352289</v>
+        <v>-0.03518825925939317</v>
       </c>
       <c r="F77">
-        <v>-0.1938616392659318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1636832562476334</v>
+      </c>
+      <c r="G77">
+        <v>0.2284181698741522</v>
+      </c>
+      <c r="H77">
+        <v>0.0188539635640367</v>
+      </c>
+      <c r="I77">
+        <v>0.2425821480605398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08431770865758884</v>
+        <v>-0.06337050770715504</v>
       </c>
       <c r="C78">
-        <v>-0.02718967557581174</v>
+        <v>0.07085101075229083</v>
       </c>
       <c r="D78">
-        <v>-0.0896248328550515</v>
+        <v>-0.01834375726060989</v>
       </c>
       <c r="E78">
-        <v>-0.03696786909527099</v>
+        <v>0.02463462356617302</v>
       </c>
       <c r="F78">
-        <v>-0.02769046709855162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06856988978604558</v>
+      </c>
+      <c r="G78">
+        <v>0.0278885736675913</v>
+      </c>
+      <c r="H78">
+        <v>-0.02710249466102423</v>
+      </c>
+      <c r="I78">
+        <v>0.03633200715080325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1277906760188932</v>
+        <v>-0.1476734483359699</v>
       </c>
       <c r="C80">
-        <v>-0.1004764199280243</v>
+        <v>-0.2483944213763613</v>
       </c>
       <c r="D80">
-        <v>0.3570037955334734</v>
+        <v>-0.9430355215458476</v>
       </c>
       <c r="E80">
-        <v>-0.8982939612888374</v>
+        <v>-0.02500000395810408</v>
       </c>
       <c r="F80">
-        <v>-0.01144438868420263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06468671191735992</v>
+      </c>
+      <c r="G80">
+        <v>-0.05274414137216463</v>
+      </c>
+      <c r="H80">
+        <v>-0.03401766083724835</v>
+      </c>
+      <c r="I80">
+        <v>-0.08678747077886366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1644236100683689</v>
+        <v>-0.1819590637433557</v>
       </c>
       <c r="C81">
-        <v>0.05897646107058142</v>
+        <v>0.03235458924527029</v>
       </c>
       <c r="D81">
-        <v>-0.03297435176342003</v>
+        <v>-0.0007656222666034609</v>
       </c>
       <c r="E81">
-        <v>-0.004424535894074088</v>
+        <v>0.1003296227299731</v>
       </c>
       <c r="F81">
-        <v>0.1488307771957177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1493187666350476</v>
+      </c>
+      <c r="G81">
+        <v>0.04423041109962565</v>
+      </c>
+      <c r="H81">
+        <v>0.03564079120453771</v>
+      </c>
+      <c r="I81">
+        <v>0.006311017863932173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06615017948115251</v>
+        <v>-0.05334577879988381</v>
       </c>
       <c r="C83">
-        <v>-0.05624552821601126</v>
+        <v>0.05578016652793933</v>
       </c>
       <c r="D83">
-        <v>-0.071924697408298</v>
+        <v>-0.001888123489294314</v>
       </c>
       <c r="E83">
-        <v>-0.001291471245622761</v>
+        <v>-0.01775950457733537</v>
       </c>
       <c r="F83">
-        <v>-0.01527749872382878</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04416848325813469</v>
+      </c>
+      <c r="G83">
+        <v>0.0273343242094556</v>
+      </c>
+      <c r="H83">
+        <v>-0.04544276615729065</v>
+      </c>
+      <c r="I83">
+        <v>0.03897580437144083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2282415604567312</v>
+        <v>-0.2414382198900321</v>
       </c>
       <c r="C85">
-        <v>0.0436266808757339</v>
+        <v>0.07549262805985668</v>
       </c>
       <c r="D85">
-        <v>-0.05405545293959094</v>
+        <v>-0.003430766286093318</v>
       </c>
       <c r="E85">
-        <v>-0.03181459277543282</v>
+        <v>0.1086353403367622</v>
       </c>
       <c r="F85">
-        <v>0.1714738396942821</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1946424107538001</v>
+      </c>
+      <c r="G85">
+        <v>0.04155641285730154</v>
+      </c>
+      <c r="H85">
+        <v>0.01439837421137992</v>
+      </c>
+      <c r="I85">
+        <v>0.02491018838273003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.0285694486257928</v>
+        <v>-0.02263511244353352</v>
       </c>
       <c r="C86">
-        <v>-0.009829985989158118</v>
+        <v>0.04282651744803017</v>
       </c>
       <c r="D86">
-        <v>-0.06865110124617164</v>
+        <v>-0.006022807356030078</v>
       </c>
       <c r="E86">
-        <v>-0.01229794632747517</v>
+        <v>0.01653244655191827</v>
       </c>
       <c r="F86">
-        <v>-0.08267873265959984</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08765445655994271</v>
+      </c>
+      <c r="G86">
+        <v>0.0593297898141253</v>
+      </c>
+      <c r="H86">
+        <v>-0.01318110444773766</v>
+      </c>
+      <c r="I86">
+        <v>0.07060158728435442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01676724089467173</v>
+        <v>-0.02579989201858839</v>
       </c>
       <c r="C87">
-        <v>0.02150181331493142</v>
+        <v>-0.005384773995594942</v>
       </c>
       <c r="D87">
-        <v>0.03200610670048915</v>
+        <v>-0.001677046649422729</v>
       </c>
       <c r="E87">
-        <v>0.008293443856441301</v>
+        <v>-0.003553452828001253</v>
       </c>
       <c r="F87">
-        <v>-0.1069255886089259</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1088581690424438</v>
+      </c>
+      <c r="G87">
+        <v>0.01062763031820567</v>
+      </c>
+      <c r="H87">
+        <v>0.01031761144842999</v>
+      </c>
+      <c r="I87">
+        <v>0.05481183643005828</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01932660259474766</v>
+        <v>-0.03241239766401274</v>
       </c>
       <c r="C88">
-        <v>0.0086898876573738</v>
+        <v>-0.006505368009093843</v>
       </c>
       <c r="D88">
-        <v>0.001084337621943052</v>
+        <v>-0.002162134380098195</v>
       </c>
       <c r="E88">
-        <v>-0.0194348523263105</v>
+        <v>0.006986258237521641</v>
       </c>
       <c r="F88">
-        <v>0.005568881486052414</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.002744945633440341</v>
+      </c>
+      <c r="G88">
+        <v>-0.0002294814228495812</v>
+      </c>
+      <c r="H88">
+        <v>-0.05532316739804135</v>
+      </c>
+      <c r="I88">
+        <v>0.007895740846426948</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.09530622148694409</v>
+        <v>-0.133331802178494</v>
       </c>
       <c r="C89">
-        <v>0.1224535989992702</v>
+        <v>-0.3525631483305213</v>
       </c>
       <c r="D89">
-        <v>0.3016017997445687</v>
+        <v>0.1317163129824104</v>
       </c>
       <c r="E89">
-        <v>0.1470444429677167</v>
+        <v>-0.09921240177128422</v>
       </c>
       <c r="F89">
-        <v>-0.05522792232404147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.03576131979832873</v>
+      </c>
+      <c r="G89">
+        <v>0.09748872478425341</v>
+      </c>
+      <c r="H89">
+        <v>-0.02378449614683326</v>
+      </c>
+      <c r="I89">
+        <v>0.05453502772352917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.07789999372477928</v>
+        <v>-0.09202855438299798</v>
       </c>
       <c r="C90">
-        <v>0.1123701993089247</v>
+        <v>-0.3051651521443898</v>
       </c>
       <c r="D90">
-        <v>0.2766021748689153</v>
+        <v>0.09423429611252632</v>
       </c>
       <c r="E90">
-        <v>0.07811124398909487</v>
+        <v>-0.08496621127770525</v>
       </c>
       <c r="F90">
-        <v>-0.06015293972479628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.007936603577319222</v>
+      </c>
+      <c r="G90">
+        <v>0.08342774054655107</v>
+      </c>
+      <c r="H90">
+        <v>-0.01124396637333103</v>
+      </c>
+      <c r="I90">
+        <v>0.01735891409456932</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2890377000956469</v>
+        <v>-0.2852277749539196</v>
       </c>
       <c r="C91">
-        <v>0.05431713740830808</v>
+        <v>0.08966317151980242</v>
       </c>
       <c r="D91">
-        <v>-0.07693166594970853</v>
+        <v>-0.0007887039746446536</v>
       </c>
       <c r="E91">
-        <v>-0.02077011128630442</v>
+        <v>0.1149211951101009</v>
       </c>
       <c r="F91">
-        <v>0.2454634667815061</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2628258576773009</v>
+      </c>
+      <c r="G91">
+        <v>0.05416722551654485</v>
+      </c>
+      <c r="H91">
+        <v>0.06129230149538675</v>
+      </c>
+      <c r="I91">
+        <v>0.03001272947233505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.103014922470999</v>
+        <v>-0.1684519999065839</v>
       </c>
       <c r="C92">
-        <v>0.07278911391553033</v>
+        <v>-0.3409054867989061</v>
       </c>
       <c r="D92">
-        <v>0.360496243562838</v>
+        <v>0.08590854823092632</v>
       </c>
       <c r="E92">
-        <v>0.09305305043703382</v>
+        <v>-0.1278920442966492</v>
       </c>
       <c r="F92">
-        <v>0.02217828783603744</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09057584874007836</v>
+      </c>
+      <c r="G92">
+        <v>0.2218389445461753</v>
+      </c>
+      <c r="H92">
+        <v>-0.05831490114510209</v>
+      </c>
+      <c r="I92">
+        <v>-0.05860264849731838</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.07750035389306063</v>
+        <v>-0.1154838403097962</v>
       </c>
       <c r="C93">
-        <v>0.1237089542380772</v>
+        <v>-0.3679772312911458</v>
       </c>
       <c r="D93">
-        <v>0.3535193740792665</v>
+        <v>0.1229896355269492</v>
       </c>
       <c r="E93">
-        <v>0.1201439302636326</v>
+        <v>-0.1310338978413079</v>
       </c>
       <c r="F93">
-        <v>0.009875337037584657</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02201131790009559</v>
+      </c>
+      <c r="G93">
+        <v>0.02643682641329017</v>
+      </c>
+      <c r="H93">
+        <v>-0.04877124864983293</v>
+      </c>
+      <c r="I93">
+        <v>-0.0291676133424198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.272061656333881</v>
+        <v>-0.3006274838856897</v>
       </c>
       <c r="C94">
-        <v>0.09383050624772356</v>
+        <v>0.01140987012093732</v>
       </c>
       <c r="D94">
-        <v>0.03505412165356513</v>
+        <v>0.03494671859188005</v>
       </c>
       <c r="E94">
-        <v>0.01472974480292213</v>
+        <v>0.1210968493443359</v>
       </c>
       <c r="F94">
-        <v>0.1999830046683205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2742202464962001</v>
+      </c>
+      <c r="G94">
+        <v>0.08626226248372129</v>
+      </c>
+      <c r="H94">
+        <v>0.2053185077636192</v>
+      </c>
+      <c r="I94">
+        <v>0.03013055002923676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1587147705945685</v>
+        <v>-0.1301155382364083</v>
       </c>
       <c r="C95">
-        <v>-0.01569777131510791</v>
+        <v>0.09644363725343068</v>
       </c>
       <c r="D95">
-        <v>-0.1467578982480247</v>
+        <v>0.06393527767004925</v>
       </c>
       <c r="E95">
-        <v>0.03591960919333569</v>
+        <v>0.03588522058816834</v>
       </c>
       <c r="F95">
-        <v>0.5182721785166235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08113243427181596</v>
+      </c>
+      <c r="G95">
+        <v>-0.04797752740727625</v>
+      </c>
+      <c r="H95">
+        <v>-0.8871901775470551</v>
+      </c>
+      <c r="I95">
+        <v>-0.3008488634602982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.21023296065691</v>
+        <v>-0.2200142035693039</v>
       </c>
       <c r="C98">
-        <v>0.03968441681011372</v>
+        <v>-0.02257191672024904</v>
       </c>
       <c r="D98">
-        <v>0.03680053696844288</v>
+        <v>0.07530022376289144</v>
       </c>
       <c r="E98">
-        <v>0.09477441252500218</v>
+        <v>-0.02464441802111601</v>
       </c>
       <c r="F98">
-        <v>-0.07195689239150536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1761130169469131</v>
+      </c>
+      <c r="G98">
+        <v>-0.3866893429925219</v>
+      </c>
+      <c r="H98">
+        <v>0.0412018317476246</v>
+      </c>
+      <c r="I98">
+        <v>-0.04028478311742421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00720546296292802</v>
+        <v>-0.01561967608365421</v>
       </c>
       <c r="C101">
-        <v>0.02207921000057442</v>
+        <v>0.02570429160446329</v>
       </c>
       <c r="D101">
-        <v>-0.06597409795115576</v>
+        <v>-0.009129350865968661</v>
       </c>
       <c r="E101">
-        <v>-0.03273586440524395</v>
+        <v>0.03998749760400216</v>
       </c>
       <c r="F101">
-        <v>-0.01681275919896873</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07613585581416249</v>
+      </c>
+      <c r="G101">
+        <v>0.1101728134573095</v>
+      </c>
+      <c r="H101">
+        <v>0.0006089650431383996</v>
+      </c>
+      <c r="I101">
+        <v>-0.1238665490427679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09886306481021676</v>
+        <v>-0.1153173263623995</v>
       </c>
       <c r="C102">
-        <v>0.02942852790449525</v>
+        <v>0.0333276206478815</v>
       </c>
       <c r="D102">
-        <v>-0.03850247737384756</v>
+        <v>-0.009091698037565389</v>
       </c>
       <c r="E102">
-        <v>-0.02856156869962068</v>
+        <v>0.05820490237129988</v>
       </c>
       <c r="F102">
-        <v>0.0992063661192928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1130248113047017</v>
+      </c>
+      <c r="G102">
+        <v>0.02034023382063061</v>
+      </c>
+      <c r="H102">
+        <v>0.007599452902996745</v>
+      </c>
+      <c r="I102">
+        <v>0.02664241107290295</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02281575326382664</v>
+        <v>-0.02825995572944287</v>
       </c>
       <c r="C103">
-        <v>0.01255238698093548</v>
+        <v>0.007092049588731944</v>
       </c>
       <c r="D103">
-        <v>-0.007218361329706819</v>
+        <v>-0.009548447241959723</v>
       </c>
       <c r="E103">
-        <v>-0.003858525136332933</v>
+        <v>0.01931929465177001</v>
       </c>
       <c r="F103">
-        <v>0.02005640151734564</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01802323071158454</v>
+      </c>
+      <c r="G103">
+        <v>0.01765080854145051</v>
+      </c>
+      <c r="H103">
+        <v>-0.008610773111021881</v>
+      </c>
+      <c r="I103">
+        <v>0.01580814510168075</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
